--- a/medicine/Psychotrope/Royal_Swinkels/Royal_Swinkels.xlsx
+++ b/medicine/Psychotrope/Royal_Swinkels/Royal_Swinkels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Royal Swinkels (anciennement Bavaria) est une entreprise familiale néerlandaise de Brabant-Septentrional dans le secteur de la bière et des boissons gazeuses. Elle réalise un chiffre d'affaires de plus de 1,128 millions d'euros par an. Royal Swinkels exploite huit brasseries, dont trois aux Pays-Bas, trois en Belgique, une en Éthiopie et une a Cuba. Basée à Lieshout, Royal Swinkels exporte vers plus de 150 pays dans le monde. Avec une puissance totale de plus de sept millions d'hectolitres par an, elle est la deuxième plus grande société de brasseries aux Pays-Bas, derrière Heineken, et l'un des plus grands producteurs de malt en Europe.
@@ -512,17 +524,19 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus anciens documents connus au sujet de l'entreprise datent de 1680 et concernent une brasserie qui faisait partie d'une ferme sur le Kerkdijk, dont le propriétaire était Dirk Vereijken [2],[3].
-Au cours de trois générations consécutives cette brasserie a été transmise de père en fille. Les noms des nouvelles familles brassicoles étaient Van Moorsel et Moorrees. En 1764, Brigitta Moorrees épousa Ambrosius Swinkels. Après la mort de sa mère en 1773, Brigitta et son mari sont devenus les propriétaires à part entière de la brasserie. Depuis lors, la brasserie appartient à la famille Swinkels [4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus anciens documents connus au sujet de l'entreprise datent de 1680 et concernent une brasserie qui faisait partie d'une ferme sur le Kerkdijk, dont le propriétaire était Dirk Vereijken ,.
+Au cours de trois générations consécutives cette brasserie a été transmise de père en fille. Les noms des nouvelles familles brassicoles étaient Van Moorsel et Moorrees. En 1764, Brigitta Moorrees épousa Ambrosius Swinkels. Après la mort de sa mère en 1773, Brigitta et son mari sont devenus les propriétaires à part entière de la brasserie. Depuis lors, la brasserie appartient à la famille Swinkels .
 En 1924, cette famille a construit une plus grande brasserie dans laquelle elle a commencé de brasser une bière par la méthode de fermentation basse. Aux Pays-Bas cette bière s’appelait à cette époque Beiers Bier (Bière de Bavière). C'est pour ça que la brasserie changea le nom De Kerkdijk pour Bavaria. 
 En 1940, l'entreprise établit ses propres malteries.
 Dans les années 1970, elle a commencé l'exportation de la bière, qui est maintenant exportée vers 150 pays. En 1978 l'entreprise a introduit une des premières bières non alcoolisées dans le monde.
 En 1992, la société prit la décision de créer la filiale française qui lancera l’année suivante la marque « 8.6 » avec un format boîte 50 cl, très peu utilisé à l’époque (seulement par quelques bières allemandes) et jamais vu sur une marque de bière ayant un titrage supérieur à 5°.
 En 1998, l'entreprise a repris la commercialisation des bières de l'abbaye de Koningshoeven (fondée en 1884) qui fabrique, à cette époque, les seules bières trappistes des Pays-Bas, sous le nom de la Trappe.
-En 2016, la société rachète les brasseries belges du groupe Palm Belgian Craft Brewers pour enrichir son portefeuille de bières de spécialités avec l’acquisition de 7 nouvelles marques [5], et pris 35 % des parts dans la marque De Molen [6].
-En 2018, il a été décidé de changer le nom de l'entreprise de Bavaria à Swinkels Family Brewers (Brasseurs de Famille Swinkels) [7]. En mars 2019, Wim van de Donk, Commissaire du Roi de la province Brabant-Septentrional, a annoncé que Swinkels Family Brewers recevrait la désignation royale et a officiellement nommé l'entreprise « Royal Swinkels Family Brewers ». '. Le prix a été décerné à la brasserie en raison du 300e anniversaire de l'entreprise et de son importance nationale. À partir de 2024, le nom sera raccourci en Royal Swinkels.[1]
+En 2016, la société rachète les brasseries belges du groupe Palm Belgian Craft Brewers pour enrichir son portefeuille de bières de spécialités avec l’acquisition de 7 nouvelles marques , et pris 35 % des parts dans la marque De Molen .
+En 2018, il a été décidé de changer le nom de l'entreprise de Bavaria à Swinkels Family Brewers (Brasseurs de Famille Swinkels) . En mars 2019, Wim van de Donk, Commissaire du Roi de la province Brabant-Septentrional, a annoncé que Swinkels Family Brewers recevrait la désignation royale et a officiellement nommé l'entreprise « Royal Swinkels Family Brewers ». '. Le prix a été décerné à la brasserie en raison du 300e anniversaire de l'entreprise et de son importance nationale. À partir de 2024, le nom sera raccourci en Royal Swinkels.
 À ce jour, la direction de la brasserie est formée par des membres de la septième génération de Swinkels.
 </t>
         </is>
@@ -554,11 +568,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publicités télévisées
-Royal Swinkels a réalisé de nombreuses publicités dont le personnage central était des acteurs célèbres comme Lee Van Cleef, Marco van Basten, Maradona, Arie Haan, Guus Meeuwis, Joan Collins, Don Johnson, Mickey Rourke, Hugh Hefner et Charlie Sheen.
-En 2014, les publicités font également références à des idoles décédées [8] comme Marilyn Monroe, Elvis Presley, Kurt Cobain, John Lennon, Bruce Lee et Tupac Shakur et ont conduit les États-Unis à l'indignation, en particulier dans la presse. Les commentaires YouTube ont été majoritairement positifs.
-Coupe du monde de football 2010
-Royal Swinkels, à ce moment-là Bavaria, s'est fait remarquer lors d'un scandale au cours du mondial de football de 2010 [9]. En habillant des supportrices néerlandaises lors du match Pays-Bas -  Danemark, la brasserie est soupçonnée d'avoir réalisé une campagne d’ambush marketing.
+          <t>Publicités télévisées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royal Swinkels a réalisé de nombreuses publicités dont le personnage central était des acteurs célèbres comme Lee Van Cleef, Marco van Basten, Maradona, Arie Haan, Guus Meeuwis, Joan Collins, Don Johnson, Mickey Rourke, Hugh Hefner et Charlie Sheen.
+En 2014, les publicités font également références à des idoles décédées  comme Marilyn Monroe, Elvis Presley, Kurt Cobain, John Lennon, Bruce Lee et Tupac Shakur et ont conduit les États-Unis à l'indignation, en particulier dans la presse. Les commentaires YouTube ont été majoritairement positifs.
 </t>
         </is>
       </c>
@@ -584,20 +601,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coupe du monde de football 2010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royal Swinkels, à ce moment-là Bavaria, s'est fait remarquer lors d'un scandale au cours du mondial de football de 2010 . En habillant des supportrices néerlandaises lors du match Pays-Bas -  Danemark, la brasserie est soupçonnée d'avoir réalisé une campagne d’ambush marketing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Les marques et les bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Royal Swinkels propose plusieurs noms de marques.
-Bavaria
-Sous ce nom Royal Swinkels vend la plupart de ses bières. Cette marque est le haut de gamme de la brasserie. Elle offre huit variations de bière alcoolisée, cinq types de bière sans alcool et sept saveurs de la bière maltée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les marques et les bières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bavaria</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sous ce nom Royal Swinkels vend la plupart de ses bières. Cette marque est le haut de gamme de la brasserie. Elle offre huit variations de bière alcoolisée, cinq types de bière sans alcool et sept saveurs de la bière maltée.
 On trouve en France la Bavaria 0,0 % avec les quatre bières 100 % sans alcool suivantes :
 la Bavaria 0,0 % WIT, bière blanche 100 % sans alcool ;
 la Bavaria 0,0 % Fruity Rose, bière aux fruits rouges 100 % sans alcool ;
 la Bavaria 0,0 % Ginger, bière au citron vert-gingembre ;
-la Bavaria 0,0% IPA
-8.6
+la Bavaria 0,0% IPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les marques et les bières</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 8.6, sur le Wiktionnaire
 8.6 est une marque de spécialité principalement commercialisée dans un format de boîte 50 cl. On trouve en France :
@@ -606,13 +732,118 @@
 la 8.6 Gold, bière blonde de spécialité au goût doux et peu amer, avec des notes florales et fruitées ;
 la 8.6 IPL, bière blonde de spécialité qui associe la qualité rafraîchissante d'une lager et la saveur houblonnée d'une India Pale, avec des notes sucrées et légèrement florales ;
 la 8.6 Extrême. Son goût ressemble à celui de l'Original mais par sa dose d'alcool de 10,5 %, elle reste la plus forte de toutes.
-La 8.6, novatrice lors de son arrivée sur le marché français en 1993, à la fois pour son format 50 cl et pour son titre alcoolique élevé, a connu un fort succès. Si le patron de Bavaria de l'époque, Stan Mostermans, assure alors qu'à la qualité de cette bière s'attache comme quasi-slogan « buvez moins et mieux », elle est souvent associée aux SDF ou à l'alcoolisation des jeunes, une « bière qui fracasse » selon Libération. Dès 1995, ce sont 20 millions de cannettes qui sont vendues. La bière a été copiée par Leader Price, qui a fait produire par Karlsbräu une bière quasi identique, appelée 8.8[10].
-Swinckels
-Swinckels est une marque premium pour la bière spéciale qui a été introduit en 2007 lors de la transition de la sixième à la septième génération de Swinkels.
-La Trappe
-En 1999, Royal Swinkels reprit la commercialisation de la brasserie trappiste de l’Abbaye de Koningshoeven sous le nom de marque : La Trappe 
-Palm
-Royal Swinkels a également récemment racheté les marques des brasseries Palm, dont Cornet, Brugge Tripel, Rodenbach, Arthur Legacy et Steenbrugge.
+La 8.6, novatrice lors de son arrivée sur le marché français en 1993, à la fois pour son format 50 cl et pour son titre alcoolique élevé, a connu un fort succès. Si le patron de Bavaria de l'époque, Stan Mostermans, assure alors qu'à la qualité de cette bière s'attache comme quasi-slogan « buvez moins et mieux », elle est souvent associée aux SDF ou à l'alcoolisation des jeunes, une « bière qui fracasse » selon Libération. Dès 1995, ce sont 20 millions de cannettes qui sont vendues. La bière a été copiée par Leader Price, qui a fait produire par Karlsbräu une bière quasi identique, appelée 8.8.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les marques et les bières</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Swinckels</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swinckels est une marque premium pour la bière spéciale qui a été introduit en 2007 lors de la transition de la sixième à la septième génération de Swinkels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les marques et les bières</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La Trappe</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, Royal Swinkels reprit la commercialisation de la brasserie trappiste de l’Abbaye de Koningshoeven sous le nom de marque : La Trappe 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Swinkels</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les marques et les bières</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Palm</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royal Swinkels a également récemment racheté les marques des brasseries Palm, dont Cornet, Brugge Tripel, Rodenbach, Arthur Legacy et Steenbrugge.
 </t>
         </is>
       </c>
